--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>column a, row 3</t>
+  </si>
+  <si>
+    <t>column a, row 4</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>B2*B3</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -389,9 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -428,8 +427,27 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>B2*B3</f>
-        <v>6</v>
+        <f>B2*B3+Sheet2!A1</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>POWER(2, 5)+8+(10/5)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -440,14 +441,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>POWER(2, 5)+8+Sheet3!A1</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>POWER(2, 5)+8+(10/5)</f>
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>column a, row 4</t>
+  </si>
+  <si>
+    <t>bool 2</t>
+  </si>
+  <si>
+    <t>bool 1</t>
   </si>
 </sst>
 </file>
@@ -389,16 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -414,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -423,13 +431,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f>B2*B3+Sheet2!A1</f>
         <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>IF(B6, 42, -1)</f>
+        <v>42</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f>AND(TRUE, FALSE, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="b">
+        <f>OR(C5,D5,FALSE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>bool 1</t>
+  </si>
+  <si>
+    <t>sum range</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +416,9 @@
       <c r="B1">
         <v>1</v>
       </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -463,6 +469,15 @@
       <c r="B6" t="b">
         <f>OR(C5,D5,FALSE,FALSE)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B1:C2, 1000)</f>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -400,9 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -427,6 +425,10 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <f>5*5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -436,6 +438,9 @@
         <f>B1+B2</f>
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -476,8 +481,8 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>SUM(B1:C2, 1000)</f>
-        <v>1007</v>
+        <f>SUM(B1:C3, 1000)</f>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -52,11 +52,20 @@
   <si>
     <t>sum</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date now</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,15 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,6 +502,31 @@
       <c r="B7">
         <f>SUM(B1:C3, 1000)</f>
         <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41872</v>
+      </c>
+      <c r="C8">
+        <f>YEAR(B8)</f>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <f ca="1">NOW()</f>
+        <v>42891.955801504628</v>
+      </c>
+      <c r="C9">
+        <f ca="1">MONTH(B9)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -544,12 +582,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <f>SUM(B2:B5001)</f>
         <v>235737.40843760612</v>
       </c>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>date now</t>
+  </si>
+  <si>
+    <t>vlookup</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -522,7 +525,7 @@
       </c>
       <c r="B9" s="2">
         <f ca="1">NOW()</f>
-        <v>42891.955801504628</v>
+        <v>42892.914087384263</v>
       </c>
       <c r="C9">
         <f ca="1">MONTH(B9)</f>
@@ -575,18 +578,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5001"/>
+  <dimension ref="A1:E5001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -594,8 +598,15 @@
         <f>SUM(B2:B5001)</f>
         <v>235737.40843760612</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <f>VLOOKUP(11.5, A2:B5001, 2)</f>
+        <v>3.3166247903553998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,7 +624,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,7 +633,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -631,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -640,7 +651,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -649,7 +660,7 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -658,7 +669,7 @@
         <v>2.6457513110645907</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,7 +678,7 @@
         <v>2.8284271247461903</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -676,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -685,7 +696,7 @@
         <v>3.1622776601683795</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -694,7 +705,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -703,7 +714,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -712,7 +723,7 @@
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -721,7 +732,7 @@
         <v>3.7416573867739413</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>vlookup</t>
+  </si>
+  <si>
+    <t>vlookup date</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
       </c>
       <c r="B9" s="2">
         <f ca="1">NOW()</f>
-        <v>42892.914087384263</v>
+        <v>42895.989242129632</v>
       </c>
       <c r="C9">
         <f ca="1">MONTH(B9)</f>
@@ -578,19 +581,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5001"/>
+  <dimension ref="A1:H5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -602,11 +607,11 @@
         <v>10</v>
       </c>
       <c r="E1">
-        <f>VLOOKUP(11.5, A2:B5001, 2)</f>
+        <f>VLOOKUP(11.8, A2:B5001, 2)</f>
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -614,8 +619,22 @@
         <f>SQRT(A2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(DATE(2017,1+3,1), G2:H4, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>DATE(2017, 2, 20)</f>
+        <v>42786</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -623,8 +642,15 @@
         <f t="shared" ref="B3:B66" si="0">SQRT(A3)</f>
         <v>1.4142135623730951</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <f>DATE(2017,3,21)</f>
+        <v>42815</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,8 +658,15 @@
         <f t="shared" si="0"/>
         <v>1.7320508075688772</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <f>DATE(2017,4,5)</f>
+        <v>42830</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -642,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -651,7 +684,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -660,7 +693,7 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,7 +702,7 @@
         <v>2.6457513110645907</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -678,7 +711,7 @@
         <v>2.8284271247461903</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -696,7 +729,7 @@
         <v>3.1622776601683795</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -705,7 +738,7 @@
         <v>3.3166247903553998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -714,7 +747,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -723,7 +756,7 @@
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -732,7 +765,7 @@
         <v>3.7416573867739413</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="named_range_01">Sheet1!$B$10</definedName>
+  </definedNames>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>vlookup date</t>
+  </si>
+  <si>
+    <t>namedrange</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,11 +534,20 @@
       </c>
       <c r="B9" s="2">
         <f ca="1">NOW()</f>
-        <v>42895.989242129632</v>
+        <v>42899.903908333334</v>
       </c>
       <c r="C9">
         <f ca="1">MONTH(B9)</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>ROUND(7/9,2)</f>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
+++ b/examples/ExcelFormulaParser.Expressions.Console/Book.xlsx
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="named_range_01">Sheet1!$B$10</definedName>
+    <definedName name="named_range_02">Sheet1!$B$11</definedName>
   </definedNames>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>column a, row 1</t>
   </si>
@@ -68,7 +69,10 @@
     <t>vlookup date</t>
   </si>
   <si>
-    <t>namedrange</t>
+    <t>namedrange2</t>
+  </si>
+  <si>
+    <t>namedrange1</t>
   </si>
 </sst>
 </file>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +538,7 @@
       </c>
       <c r="B9" s="2">
         <f ca="1">NOW()</f>
-        <v>42899.903908333334</v>
+        <v>42903.456415624998</v>
       </c>
       <c r="C9">
         <f ca="1">MONTH(B9)</f>
@@ -543,11 +547,20 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <f>ROUND(7/9,2)</f>
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f>named_range_01+1</f>
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>
